--- a/fieldData/school_1F.xlsx
+++ b/fieldData/school_1F.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B34CE0-9773-433D-AA34-59FBBC34C469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C92010-0C6C-4DE6-B4AA-74D09CC685E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
@@ -91,6 +91,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -399,20 +413,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -736,7 +736,7 @@
   <dimension ref="A1:CW36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU24" sqref="AU24"/>
+      <selection activeCell="AV26" sqref="AV26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6087,16 +6087,16 @@
         <v>1</v>
       </c>
       <c r="AY18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB18" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC18" s="1">
         <v>1</v>
@@ -6392,16 +6392,16 @@
         <v>1</v>
       </c>
       <c r="AY19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC19" s="1">
         <v>1</v>
@@ -6697,16 +6697,16 @@
         <v>1</v>
       </c>
       <c r="AY20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="1">
         <v>1</v>
@@ -7005,10 +7005,10 @@
         <v>3</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB21" s="1">
         <v>3</v>
@@ -7307,16 +7307,16 @@
         <v>1</v>
       </c>
       <c r="AY22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="1">
         <v>1</v>
@@ -7612,16 +7612,16 @@
         <v>1</v>
       </c>
       <c r="AY23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="1">
         <v>1</v>
@@ -7920,13 +7920,13 @@
         <v>3</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA24" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="1">
         <v>1</v>
@@ -9110,13 +9110,13 @@
         <v>1</v>
       </c>
       <c r="AP28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="1">
         <v>1</v>
@@ -9131,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="AW28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX28" s="1">
         <v>1</v>
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
       <c r="AZ28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA28" s="1">
         <v>1</v>
@@ -9155,13 +9155,13 @@
         <v>1</v>
       </c>
       <c r="BE28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="1">
         <v>1</v>
@@ -9173,13 +9173,13 @@
         <v>1</v>
       </c>
       <c r="BK28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN28" s="1">
         <v>1</v>
@@ -9257,13 +9257,13 @@
         <v>1</v>
       </c>
       <c r="CM28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP28" s="1">
         <v>1</v>
@@ -9415,13 +9415,13 @@
         <v>1</v>
       </c>
       <c r="AP29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="1">
         <v>1</v>
@@ -9436,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="AW29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="1">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="AZ29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA29" s="1">
         <v>1</v>
@@ -9460,13 +9460,13 @@
         <v>1</v>
       </c>
       <c r="BE29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH29" s="1">
         <v>1</v>
@@ -9478,13 +9478,13 @@
         <v>1</v>
       </c>
       <c r="BK29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN29" s="1">
         <v>1</v>
@@ -9562,13 +9562,13 @@
         <v>1</v>
       </c>
       <c r="CM29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP29" s="1">
         <v>1</v>
@@ -9720,13 +9720,13 @@
         <v>1</v>
       </c>
       <c r="AP30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS30" s="1">
         <v>1</v>
@@ -9741,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="AW30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX30" s="1">
         <v>1</v>
@@ -9750,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="AZ30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA30" s="1">
         <v>1</v>
@@ -9765,13 +9765,13 @@
         <v>1</v>
       </c>
       <c r="BE30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH30" s="1">
         <v>1</v>
@@ -9783,13 +9783,13 @@
         <v>1</v>
       </c>
       <c r="BK30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN30" s="1">
         <v>1</v>
@@ -9867,13 +9867,13 @@
         <v>1</v>
       </c>
       <c r="CM30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP30" s="1">
         <v>1</v>
@@ -10025,13 +10025,13 @@
         <v>1</v>
       </c>
       <c r="AP31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="1">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>1</v>
       </c>
       <c r="AW31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX31" s="1">
         <v>1</v>
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="AZ31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA31" s="1">
         <v>1</v>
@@ -10070,13 +10070,13 @@
         <v>1</v>
       </c>
       <c r="BE31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH31" s="1">
         <v>1</v>
@@ -10088,13 +10088,13 @@
         <v>1</v>
       </c>
       <c r="BK31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN31" s="1">
         <v>1</v>
@@ -10172,13 +10172,13 @@
         <v>1</v>
       </c>
       <c r="CM31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN31" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP31" s="1">
         <v>1</v>
@@ -10330,13 +10330,13 @@
         <v>1</v>
       </c>
       <c r="AP32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="1">
         <v>1</v>
@@ -10375,13 +10375,13 @@
         <v>1</v>
       </c>
       <c r="BE32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH32" s="1">
         <v>1</v>
@@ -10393,13 +10393,13 @@
         <v>1</v>
       </c>
       <c r="BK32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN32" s="1">
         <v>1</v>
@@ -10477,13 +10477,13 @@
         <v>1</v>
       </c>
       <c r="CM32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN32" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP32" s="1">
         <v>1</v>
@@ -10635,13 +10635,13 @@
         <v>1</v>
       </c>
       <c r="AP33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS33" s="1">
         <v>1</v>
@@ -10680,13 +10680,13 @@
         <v>1</v>
       </c>
       <c r="BE33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH33" s="1">
         <v>1</v>
@@ -10698,13 +10698,13 @@
         <v>1</v>
       </c>
       <c r="BK33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN33" s="1">
         <v>1</v>
@@ -10782,13 +10782,13 @@
         <v>1</v>
       </c>
       <c r="CM33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CO33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP33" s="1">
         <v>1</v>
@@ -11732,236 +11732,236 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AE10:CV12 AT1:BD9 CV28:CV35 CG28:CH29 A36:CV36 B28:L35 P2:AG8 AN34:BO36 AI28:AR33 AI34:BO35 BK28:BO33 AT28:BC33 BE28:BI33 A1:AD20 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 L25:CV27 CR28:CT35 CR34:CR36 CP28:CP34 O19:Q23 AT13:BD25 B21:AS24 CO13:CV24 CG12:CL27 C9:AR9 CR26:CR28 C28:AL28">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AE10:CV12 AT1:BD9 CV28:CV35 CG28:CH29 A36:CV36 B28:L35 P2:AG8 AN34:BO36 A1:AD20 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 L25:CV27 CR28:CT35 CR34:CR36 O19:Q23 B21:AS24 CO13:CV24 CG12:CL27 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 AI28:BO35 CO28:CP34 CM27:CM34 AT13:BD25">
+    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT28:BC33 BE28:BI33 CS28:CS35 A35:XFD1048576 A34:CO34 CP28:XFD34 A1:XFD27 BK28:CO33 CR26:CR28 A28:AR33">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:W35 R29:R36 K29:P35">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:AH35">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM29:AM36">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA1:CV1 AY1:BD3 CA2:CK9 BR2:CG8 BE1:BZ9 BF9:CG9 CI7:CL7 CH2:CL6">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO28:BO33 BU29:BU36 BP28:CE35 CF29:CF35 BR28:CH28">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF29:CF36 BX28:BX35 CH28:CH36 CA28:CL35 CM28:CM33">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS29:CS36 CR34:CR36 CL35:CV35 CQ28:CV34 CL28:CO34">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AQ33">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AQ33">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR28:AR33">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+  <conditionalFormatting sqref="AR28:AS33">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR28:AR33">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+  <conditionalFormatting sqref="AR28:AS33">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM28:BM33">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="BC28:BM33">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM28:BM33">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+  <conditionalFormatting sqref="BC28:BM33">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BL33">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BL33">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BK33">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BK33">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BI33">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BI33">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BG33">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BG33">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28:BF33">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28:BF33">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BE33">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BE33">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28:AT33">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28:AT33">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BC33">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BC33">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK28:CK33">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT28:BT36 BP28:BS35 BR28:CH28">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH28">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO28:CO33 CM28:CN35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM28:CM33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fieldData/school_1F.xlsx
+++ b/fieldData/school_1F.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C92010-0C6C-4DE6-B4AA-74D09CC685E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6A2D7A-36CF-4DA3-BDD2-8BF267BCB6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
@@ -91,20 +91,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -413,6 +399,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -736,7 +736,7 @@
   <dimension ref="A1:CW36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV26" sqref="AV26"/>
+      <selection activeCell="AY33" sqref="AY33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1063,31 +1063,31 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
@@ -1096,64 +1096,64 @@
         <v>3</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="1">
         <v>3</v>
@@ -1162,31 +1162,31 @@
         <v>3</v>
       </c>
       <c r="AJ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1">
         <v>3</v>
@@ -1228,31 +1228,31 @@
         <v>3</v>
       </c>
       <c r="BF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="1">
         <v>3</v>
       </c>
       <c r="BK2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="1">
         <v>3</v>
@@ -1261,55 +1261,55 @@
         <v>3</v>
       </c>
       <c r="BQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2" s="1">
         <v>3</v>
@@ -1327,31 +1327,31 @@
         <v>3</v>
       </c>
       <c r="CM2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV2" s="1">
         <v>3</v>
@@ -1368,31 +1368,31 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
@@ -1401,64 +1401,64 @@
         <v>3</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1">
         <v>3</v>
@@ -1467,31 +1467,31 @@
         <v>3</v>
       </c>
       <c r="AJ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="1">
         <v>3</v>
@@ -1533,31 +1533,31 @@
         <v>3</v>
       </c>
       <c r="BF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="1">
         <v>3</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="1">
         <v>3</v>
@@ -1566,55 +1566,55 @@
         <v>3</v>
       </c>
       <c r="BQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3" s="1">
         <v>3</v>
@@ -1632,31 +1632,31 @@
         <v>3</v>
       </c>
       <c r="CM3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV3" s="1">
         <v>3</v>
@@ -1673,31 +1673,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
@@ -1706,64 +1706,64 @@
         <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="1">
         <v>3</v>
@@ -1772,31 +1772,31 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="1">
         <v>3</v>
@@ -1838,31 +1838,31 @@
         <v>3</v>
       </c>
       <c r="BF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="1">
         <v>3</v>
       </c>
       <c r="BK4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="1">
         <v>3</v>
@@ -1871,55 +1871,55 @@
         <v>3</v>
       </c>
       <c r="BQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="1">
         <v>3</v>
@@ -1937,31 +1937,31 @@
         <v>3</v>
       </c>
       <c r="CM4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV4" s="1">
         <v>3</v>
@@ -1978,31 +1978,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <v>3</v>
@@ -2011,64 +2011,64 @@
         <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1">
         <v>3</v>
@@ -2077,31 +2077,31 @@
         <v>3</v>
       </c>
       <c r="AJ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="1">
         <v>3</v>
@@ -2143,31 +2143,31 @@
         <v>3</v>
       </c>
       <c r="BF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="1">
         <v>3</v>
       </c>
       <c r="BK5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="1">
         <v>3</v>
@@ -2176,55 +2176,55 @@
         <v>3</v>
       </c>
       <c r="BQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5" s="1">
         <v>3</v>
@@ -2242,31 +2242,31 @@
         <v>3</v>
       </c>
       <c r="CM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV5" s="1">
         <v>3</v>
@@ -2283,31 +2283,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -2316,64 +2316,64 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="1">
         <v>3</v>
@@ -2382,31 +2382,31 @@
         <v>3</v>
       </c>
       <c r="AJ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="1">
         <v>3</v>
@@ -2448,31 +2448,31 @@
         <v>3</v>
       </c>
       <c r="BF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ6" s="1">
         <v>3</v>
       </c>
       <c r="BK6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="1">
         <v>3</v>
@@ -2481,55 +2481,55 @@
         <v>3</v>
       </c>
       <c r="BQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH6" s="1">
         <v>3</v>
@@ -2547,31 +2547,31 @@
         <v>3</v>
       </c>
       <c r="CM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV6" s="1">
         <v>3</v>
@@ -2588,31 +2588,31 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>3</v>
@@ -2621,64 +2621,64 @@
         <v>3</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
         <v>3</v>
@@ -2687,31 +2687,31 @@
         <v>3</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
         <v>3</v>
@@ -2753,31 +2753,31 @@
         <v>3</v>
       </c>
       <c r="BF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="1">
         <v>3</v>
       </c>
       <c r="BK7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="1">
         <v>3</v>
@@ -2786,55 +2786,55 @@
         <v>3</v>
       </c>
       <c r="BQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH7" s="1">
         <v>3</v>
@@ -2852,31 +2852,31 @@
         <v>3</v>
       </c>
       <c r="CM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV7" s="1">
         <v>3</v>
@@ -2893,31 +2893,31 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -2926,64 +2926,64 @@
         <v>3</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="1">
         <v>3</v>
@@ -2992,31 +2992,31 @@
         <v>3</v>
       </c>
       <c r="AJ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="1">
         <v>3</v>
@@ -3058,31 +3058,31 @@
         <v>3</v>
       </c>
       <c r="BF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="1">
         <v>3</v>
       </c>
       <c r="BK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="1">
         <v>3</v>
@@ -3091,55 +3091,55 @@
         <v>3</v>
       </c>
       <c r="BQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="1">
         <v>3</v>
@@ -3157,31 +3157,31 @@
         <v>3</v>
       </c>
       <c r="CM8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV8" s="1">
         <v>3</v>
@@ -4888,88 +4888,88 @@
         <v>3</v>
       </c>
       <c r="BF14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH14" s="1">
         <v>3</v>
@@ -5193,88 +5193,88 @@
         <v>3</v>
       </c>
       <c r="BF15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH15" s="1">
         <v>3</v>
@@ -5498,88 +5498,88 @@
         <v>3</v>
       </c>
       <c r="BF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH16" s="1">
         <v>3</v>
@@ -5803,88 +5803,88 @@
         <v>3</v>
       </c>
       <c r="BF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH17" s="1">
         <v>3</v>
@@ -6108,88 +6108,88 @@
         <v>3</v>
       </c>
       <c r="BF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH18" s="1">
         <v>3</v>
@@ -6413,88 +6413,88 @@
         <v>3</v>
       </c>
       <c r="BF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH19" s="1">
         <v>3</v>
@@ -6718,88 +6718,88 @@
         <v>3</v>
       </c>
       <c r="BF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH20" s="1">
         <v>3</v>
@@ -7023,88 +7023,88 @@
         <v>3</v>
       </c>
       <c r="BF21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH21" s="1">
         <v>3</v>
@@ -7175,25 +7175,25 @@
         <v>3</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
         <v>3</v>
@@ -7328,88 +7328,88 @@
         <v>3</v>
       </c>
       <c r="BF22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH22" s="1">
         <v>3</v>
@@ -7480,25 +7480,25 @@
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" s="1">
         <v>3</v>
@@ -7510,16 +7510,16 @@
         <v>1</v>
       </c>
       <c r="Q23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U23" s="1">
         <v>3</v>
@@ -7633,88 +7633,88 @@
         <v>3</v>
       </c>
       <c r="BF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH23" s="1">
         <v>3</v>
@@ -7785,25 +7785,25 @@
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" s="1">
         <v>3</v>
@@ -7815,16 +7815,16 @@
         <v>1</v>
       </c>
       <c r="Q24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U24" s="1">
         <v>3</v>
@@ -8360,16 +8360,16 @@
         <v>3</v>
       </c>
       <c r="CS25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW25" s="1">
         <v>3</v>
@@ -8665,16 +8665,16 @@
         <v>3</v>
       </c>
       <c r="CS26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW26" s="1">
         <v>3</v>
@@ -8970,16 +8970,16 @@
         <v>3</v>
       </c>
       <c r="CS27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW27" s="1">
         <v>3</v>
@@ -9275,16 +9275,16 @@
         <v>3</v>
       </c>
       <c r="CS28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW28" s="1">
         <v>3</v>
@@ -9298,64 +9298,64 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>3</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
         <v>3</v>
@@ -9364,31 +9364,31 @@
         <v>3</v>
       </c>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="1">
         <v>3</v>
@@ -9397,13 +9397,13 @@
         <v>3</v>
       </c>
       <c r="AJ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
         <v>3</v>
@@ -9496,13 +9496,13 @@
         <v>3</v>
       </c>
       <c r="BQ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT29" s="1">
         <v>3</v>
@@ -9511,40 +9511,40 @@
         <v>3</v>
       </c>
       <c r="BV29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH29" s="1">
         <v>3</v>
@@ -9580,16 +9580,16 @@
         <v>3</v>
       </c>
       <c r="CS29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW29" s="1">
         <v>3</v>
@@ -9603,64 +9603,64 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>3</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
         <v>3</v>
@@ -9669,31 +9669,31 @@
         <v>3</v>
       </c>
       <c r="Y30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1">
         <v>3</v>
@@ -9702,13 +9702,13 @@
         <v>3</v>
       </c>
       <c r="AJ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="1">
         <v>3</v>
@@ -9801,13 +9801,13 @@
         <v>3</v>
       </c>
       <c r="BQ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT30" s="1">
         <v>3</v>
@@ -9816,40 +9816,40 @@
         <v>3</v>
       </c>
       <c r="BV30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH30" s="1">
         <v>3</v>
@@ -9885,16 +9885,16 @@
         <v>3</v>
       </c>
       <c r="CS30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW30" s="1">
         <v>3</v>
@@ -9908,64 +9908,64 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
         <v>3</v>
@@ -9974,31 +9974,31 @@
         <v>3</v>
       </c>
       <c r="Y31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1">
         <v>3</v>
@@ -10007,13 +10007,13 @@
         <v>3</v>
       </c>
       <c r="AJ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="1">
         <v>3</v>
@@ -10106,13 +10106,13 @@
         <v>3</v>
       </c>
       <c r="BQ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT31" s="1">
         <v>3</v>
@@ -10121,40 +10121,40 @@
         <v>3</v>
       </c>
       <c r="BV31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH31" s="1">
         <v>3</v>
@@ -10190,16 +10190,16 @@
         <v>3</v>
       </c>
       <c r="CS31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW31" s="1">
         <v>3</v>
@@ -10213,64 +10213,64 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
       </c>
       <c r="S32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="1">
         <v>3</v>
@@ -10279,31 +10279,31 @@
         <v>3</v>
       </c>
       <c r="Y32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1">
         <v>3</v>
@@ -10312,13 +10312,13 @@
         <v>3</v>
       </c>
       <c r="AJ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="1">
         <v>3</v>
@@ -10411,13 +10411,13 @@
         <v>3</v>
       </c>
       <c r="BQ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT32" s="1">
         <v>3</v>
@@ -10426,40 +10426,40 @@
         <v>3</v>
       </c>
       <c r="BV32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH32" s="1">
         <v>3</v>
@@ -10495,16 +10495,16 @@
         <v>3</v>
       </c>
       <c r="CS32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW32" s="1">
         <v>3</v>
@@ -10518,64 +10518,64 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="1">
         <v>3</v>
@@ -10584,31 +10584,31 @@
         <v>3</v>
       </c>
       <c r="Y33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="1">
         <v>3</v>
@@ -10617,13 +10617,13 @@
         <v>3</v>
       </c>
       <c r="AJ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="1">
         <v>3</v>
@@ -10716,13 +10716,13 @@
         <v>3</v>
       </c>
       <c r="BQ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT33" s="1">
         <v>3</v>
@@ -10731,40 +10731,40 @@
         <v>3</v>
       </c>
       <c r="BV33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH33" s="1">
         <v>3</v>
@@ -10800,16 +10800,16 @@
         <v>3</v>
       </c>
       <c r="CS33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW33" s="1">
         <v>3</v>
@@ -10823,64 +10823,64 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
       <c r="S34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="1">
         <v>3</v>
@@ -10889,31 +10889,31 @@
         <v>3</v>
       </c>
       <c r="Y34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1">
         <v>3</v>
@@ -10922,13 +10922,13 @@
         <v>3</v>
       </c>
       <c r="AJ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" s="1">
         <v>3</v>
@@ -11021,13 +11021,13 @@
         <v>3</v>
       </c>
       <c r="BQ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT34" s="1">
         <v>3</v>
@@ -11036,40 +11036,40 @@
         <v>3</v>
       </c>
       <c r="BV34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH34" s="1">
         <v>3</v>
@@ -11105,16 +11105,16 @@
         <v>3</v>
       </c>
       <c r="CS34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW34" s="1">
         <v>3</v>
@@ -11128,64 +11128,64 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>3</v>
       </c>
       <c r="S35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="1">
         <v>3</v>
@@ -11194,31 +11194,31 @@
         <v>3</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="1">
         <v>3</v>
@@ -11227,13 +11227,13 @@
         <v>3</v>
       </c>
       <c r="AJ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
         <v>3</v>
@@ -11326,13 +11326,13 @@
         <v>3</v>
       </c>
       <c r="BQ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT35" s="1">
         <v>3</v>
@@ -11341,40 +11341,40 @@
         <v>3</v>
       </c>
       <c r="BV35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH35" s="1">
         <v>3</v>
@@ -11410,16 +11410,16 @@
         <v>3</v>
       </c>
       <c r="CS35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW35" s="1">
         <v>3</v>
@@ -11732,236 +11732,236 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AE10:CV12 AT1:BD9 CV28:CV35 CG28:CH29 A36:CV36 B28:L35 P2:AG8 AN34:BO36 A1:AD20 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 L25:CV27 CR28:CT35 CR34:CR36 O19:Q23 B21:AS24 CO13:CV24 CG12:CL27 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 AI28:BO35 CO28:CP34 CM27:CM34 AT13:BD25">
-    <cfRule type="cellIs" dxfId="3" priority="49" operator="equal">
+  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AE10:CV12 AT1:BD9 CG28:CH29 A36:CV36 AN34:BO36 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 CR34:CR36 O19:Q23 CO13:CV24 CG12:CL27 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 CO28:CP34 CM27:CM34 AT13:BD25 A1:AD20 O2:AG8 L25:CV27 CR28:CV35 CS26:CV34 B28:L35 D29:Q35 B21:AS24 AI28:BO35">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M28:W35 R29:R36 K29:P35">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+  <conditionalFormatting sqref="R29:R36 K29:P35 M28:W35">
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:AH35">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM29:AM36">
-    <cfRule type="cellIs" dxfId="43" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA1:CV1 AY1:BD3 CA2:CK9 BR2:CG8 BE1:BZ9 BF9:CG9 CI7:CL7 CH2:CL6">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+  <conditionalFormatting sqref="CA1:CV1 AY1:BD3 CA2:CK9 BF9:CG9 CI7:CL7 CH2:CL6 BE1:BZ9 BR2:CG8">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO28:BO33 BU29:BU36 BP28:CE35 CF29:CF35 BR28:CH28">
-    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
+  <conditionalFormatting sqref="BO28:BO33 BU29:BU36 BR28:CH28 BW29:CG35 BP28:CE35">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF29:CF36 BX28:BX35 CH28:CH36 CA28:CL35 CM28:CM33">
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS29:CS36 CR34:CR36 CL35:CV35 CQ28:CV34 CL28:CO34">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+  <conditionalFormatting sqref="CS29:CS36 CR34:CR36 CL28:CO34 CT29:CV35 CL35:CV35 CQ28:CV34">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AQ33">
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AQ33">
-    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR28:AS33">
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR28:AS33">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BM33">
-    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BM33">
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BL33">
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BL33">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BK33">
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BK33">
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BI33">
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BI33">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BG33">
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BG33">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28:BF33">
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28:BF33">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BE33">
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BE33">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28:AT33">
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28:AT33">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BC33">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BC33">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK28:CK33">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT28:BT36 BP28:BS35 BR28:CH28">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="BT28:BT36 BR28:CH28 BP28:BS35">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH28">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO28:CO33 CM28:CN35">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM28:CM33">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/fieldData/school_1F.xlsx
+++ b/fieldData/school_1F.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6A2D7A-36CF-4DA3-BDD2-8BF267BCB6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A81D04-D170-4489-BA78-3A0072E62D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fieldData_school_1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D650B-EB6E-484D-95A2-87377CCCE523}">
   <dimension ref="A1:CW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY33" sqref="AY33"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CN9" sqref="CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3665,34 +3665,34 @@
         <v>1</v>
       </c>
       <c r="BE10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BN10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO10" s="1">
         <v>1</v>
@@ -4966,10 +4966,10 @@
         <v>0</v>
       </c>
       <c r="CF14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH14" s="1">
         <v>3</v>
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="CF15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH15" s="1">
         <v>3</v>
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="CF16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG16" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH16" s="1">
         <v>3</v>
@@ -5881,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="CF17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG17" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH17" s="1">
         <v>3</v>
@@ -6087,16 +6087,16 @@
         <v>1</v>
       </c>
       <c r="AY18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1">
         <v>1</v>
@@ -6186,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="CF18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG18" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH18" s="1">
         <v>3</v>
@@ -6491,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="CF19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG19" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH19" s="1">
         <v>3</v>
@@ -6796,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="CF20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH20" s="1">
         <v>3</v>
@@ -7005,10 +7005,10 @@
         <v>3</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB21" s="1">
         <v>3</v>
@@ -7101,10 +7101,10 @@
         <v>0</v>
       </c>
       <c r="CF21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG21" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH21" s="1">
         <v>3</v>
@@ -7307,16 +7307,16 @@
         <v>1</v>
       </c>
       <c r="AY22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB22" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC22" s="1">
         <v>1</v>
@@ -7406,10 +7406,10 @@
         <v>0</v>
       </c>
       <c r="CF22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH22" s="1">
         <v>3</v>
@@ -7498,10 +7498,10 @@
         <v>3</v>
       </c>
       <c r="M23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -7711,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="CF23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG23" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH23" s="1">
         <v>3</v>
@@ -7803,10 +7803,10 @@
         <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -7911,16 +7911,16 @@
         <v>1</v>
       </c>
       <c r="AW24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="1">
         <v>1</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R29" s="1">
         <v>3</v>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R30" s="1">
         <v>3</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31" s="1">
         <v>3</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R32" s="1">
         <v>3</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R33" s="1">
         <v>3</v>
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R34" s="1">
         <v>3</v>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R35" s="1">
         <v>3</v>
@@ -11732,7 +11732,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AE10:CV12 AT1:BD9 CG28:CH29 A36:CV36 AN34:BO36 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 CR34:CR36 O19:Q23 CO13:CV24 CG12:CL27 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 CO28:CP34 CM27:CM34 AT13:BD25 A1:AD20 O2:AG8 L25:CV27 CR28:CV35 CS26:CV34 B28:L35 D29:Q35 B21:AS24 AI28:BO35">
+  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AT1:BD9 CG28:CH29 A36:CV36 AN34:BO36 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 CR34:CR36 O19:Q23 CO13:CV24 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 CO28:CP34 CM27:CM34 A1:AD20 O2:AG8 L25:CV27 CR28:CV35 CS26:CV34 B28:L35 B21:AS24 AI28:BO35 AE10:CV12 AT13:BD25 D29:Q35 CG12:CL27">
     <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>

--- a/fieldData/school_1F.xlsx
+++ b/fieldData/school_1F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuta04\ML-Agents\Multi-Agent_EL_School\fieldData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A81D04-D170-4489-BA78-3A0072E62D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E7F35-09E6-4756-95CB-53751210E841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A8FD18B-8B0B-49D0-9A57-F8676F92612A}"/>
   </bookViews>
   <sheets>
     <sheet name="fieldData_school_1F" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -399,6 +399,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -735,13 +749,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D650B-EB6E-484D-95A2-87377CCCE523}">
   <dimension ref="A1:CW36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CN9" sqref="CN9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BR10" sqref="BR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="39" width="3.19921875" style="1"/>
+    <col min="1" max="14" width="3.19921875" style="1"/>
+    <col min="15" max="15" width="3.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="39" width="3.19921875" style="1"/>
     <col min="40" max="40" width="3.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="61" width="3.19921875" style="1"/>
     <col min="62" max="62" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
@@ -3665,34 +3681,34 @@
         <v>1</v>
       </c>
       <c r="BE10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="1">
         <v>1</v>
@@ -7193,16 +7209,16 @@
         <v>3</v>
       </c>
       <c r="M22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" s="1">
         <v>3</v>
@@ -11732,241 +11748,247 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AT1:BD9 CG28:CH29 A36:CV36 AN34:BO36 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 CR34:CR36 O19:Q23 CO13:CV24 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 CO28:CP34 CM27:CM34 A1:AD20 O2:AG8 L25:CV27 CR28:CV35 CS26:CV34 B28:L35 B21:AS24 AI28:BO35 AE10:CV12 AT13:BD25 D29:Q35 CG12:CL27">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+  <conditionalFormatting sqref="X2:AH9 N13:AS13 AE14:AS20 B25:K28 A21:A35 AE1:BD1 AS14:AS23 AT1:BD9 CG28:CH29 A36:CV36 AN34:BO36 B13:K23 M14:M24 G25:L25 N14:AR17 T18:AR20 CR34:CR36 O19:Q23 CO13:CV24 C9:AR9 CR26:CR28 C28:AL28 AP27:AP33 AS27:AS34 AY27:AY34 BB27:BB33 CO28:CP34 CM27:CM34 A1:AD20 O2:AG8 L25:CV27 CR28:CV35 CS26:CV34 B28:L35 B21:AS24 AI28:BO35 AT13:BD25 D29:Q35 CG12:CL27 AE10:CV12">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AS9">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AS9">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:R36 K29:P35 M28:W35">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28:AH35">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM29:AM36">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT2:BD9">
-    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA1:CV1 AY1:BD3 CA2:CK9 BF9:CG9 CI7:CL7 CH2:CL6 BE1:BZ9 BR2:CG8">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL2:CV9">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO28:BO33 BU29:BU36 BR28:CH28 BW29:CG35 BP28:CE35">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF29:CF36 BX28:BX35 CH28:CH36 CA28:CL35 CM28:CM33">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS29:CS36 CR34:CR36 CL28:CO34 CT29:CV35 CL35:CV35 CQ28:CV34">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AQ33">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AQ33">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR28:AS33">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR28:AS33">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BM33">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BM33">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BL33">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BL33">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BK33">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK28:BK33">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BI33">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI28:BI33">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BG33">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28:BG33">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28:BF33">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28:BF33">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BE33">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BE33">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28:AT33">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT28:AT33">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BC33">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC28:BC33">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT28:CT35">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK28:CK33">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT28:BT36 BR28:CH28 BP28:BS35">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH28">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO28:CO33 CM28:CN35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM28:CM33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
